--- a/data/change-only-output.xlsx
+++ b/data/change-only-output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-DATA\GoogleDriveYork\Writings\ECMFA-2019\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D87E671-96C6-4FFD-AE9B-BD3FB1772826}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4786AC-AC71-418F-B7FB-26BA85E13C2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10814" windowHeight="4211" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1548,7 +1548,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.10000199999999999</c:v>
@@ -1739,7 +1739,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.10000199999999999</c:v>
@@ -1930,7 +1930,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.10000199999999999</c:v>
@@ -2180,7 +2180,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
@@ -5948,7 +5948,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.10000199999999999</c:v>
@@ -6139,7 +6139,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.10000199999999999</c:v>
@@ -6391,7 +6391,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
@@ -6516,6 +6516,3452 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389233608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10018444444444442"/>
+          <c:y val="9.2591269841269842E-3"/>
+          <c:w val="0.88008305555555555"/>
+          <c:h val="9.0109523809523806E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup paperSize="32767" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14753166666666667"/>
+          <c:y val="8.4814814814814829E-2"/>
+          <c:w val="0.79369555555555538"/>
+          <c:h val="0.74943703703703701"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Event Load</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.10000199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20000200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30000199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40000200000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50000199999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60000100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70000099999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80000099999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90000100000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0000009999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.100001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.300001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5000009999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.600001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.800001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1000009999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2000009999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2.8717475370000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6995499879999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9357891699999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1024209709999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0003091680000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8745531309999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5733688880000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5594368000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1793043959999991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9496764239999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.806128778</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.273325632000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.974511666000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.256342481000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.630875544999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.532052615000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.079932518</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.972282538000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.809545332999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.668921660999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.216386597</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.962391539000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E413-4663-937A-C1349155A40F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Element Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.10000199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20000200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30000199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40000200000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50000199999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60000100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70000099999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80000099999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90000100000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0000009999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.100001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.300001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5000009999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.600001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.800001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1000009999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2000009999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.38926012500000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63010524400000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0599313850000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.811998051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0447831949999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.253016959</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6987386069999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.701139306</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.922357477</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0516020730000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5432880610000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5131633369999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7840843529999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.984159988</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6784619090000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.52240251</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7973127369999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.6134160660000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1059270909999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1798146699999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.6280868320000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.8022349850000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E413-4663-937A-C1349155A40F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Change Diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.10000199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20000200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30000199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40000200000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50000199999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60000100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70000099999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80000099999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90000100000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0000009999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.100001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.300001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5000009999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.600001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.800001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1000009999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2000009999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.24647287700000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18348114500000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.276040059</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.375330724</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45475373800000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51012438100000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57269506699999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64498518000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69615174499999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75839833000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81022630100000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85117510200000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89075090400000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96886412099999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0600912629999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0370273329999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.133284569</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1379790999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.048477009</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.977674135</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.024459542</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.048356523</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E413-4663-937A-C1349155A40F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="389233608"/>
+        <c:axId val="389231968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="389233608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.4"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Differences</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>(x1M)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.25274053785591677"/>
+              <c:y val="0.92380640026237792"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389231968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="389231968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Execution Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389233608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10018444444444442"/>
+          <c:y val="9.2591269841269842E-3"/>
+          <c:w val="0.88008305555555555"/>
+          <c:h val="9.0109523809523806E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup paperSize="32767" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14753166666666667"/>
+          <c:y val="8.4814814814814829E-2"/>
+          <c:w val="0.79369555555555538"/>
+          <c:h val="0.74943703703703701"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Event Load</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.10000199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20000200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30000199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40000200000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50000199999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60000100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70000099999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80000099999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90000100000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0000009999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.100001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.300001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5000009999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.600001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.800001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1000009999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2000009999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>5.2180296000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3017628000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14512430800000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20919568799999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26159161600000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31400656799999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36648273199999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41901661600000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47155388799999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52414395199999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57673889599999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.62935459199999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68198831999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73465166400000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.78734432799999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84003162399999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89277400799999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94552375200000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99825516000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.050985584</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.103743344</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.156526776</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B140-4E5C-B5CF-6C5FBC7DAAA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Element Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.10000199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20000200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30000199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40000200000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50000199999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60000100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70000099999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80000099999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90000100000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0000009999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.100001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.300001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5000009999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.600001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.800001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1000009999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2000009999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.13155994400000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24764277600000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35126402400000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44250627999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52431532800000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.597028856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66471523200000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72396024800000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77780118399999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82649419999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87144750400000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91250421599999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94979682399999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98473823199999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0171070719999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.047085592</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.075126</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.101003264</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.125327704</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1482168720000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.169772896</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.190130592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B140-4E5C-B5CF-6C5FBC7DAAA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Change Diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.10000199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20000200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30000199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40000200000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50000199999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60000100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70000099999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80000099999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90000100000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0000009999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.100001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.300001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5000009999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.600001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.800001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1000009999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2000009999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.6002295999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9813343999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1712527999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1522079999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0821672E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8170384000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4618751999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0310335999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6396552000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0777904000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4725279999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.8232239999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1013066</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.10412464</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.106648304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10897883999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.112751608</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.11465264</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.11639324</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.117970112</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.119457336</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.120830776</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B140-4E5C-B5CF-6C5FBC7DAAA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="389233608"/>
+        <c:axId val="389231968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="389233608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.4"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Differences (x1M)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.2523711982034314"/>
+              <c:y val="0.92440481407466824"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389231968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="389231968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Memory Footprint</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (GBs)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389233608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10018444444444442"/>
+          <c:y val="9.2591269841269842E-3"/>
+          <c:w val="0.88008305555555555"/>
+          <c:h val="9.0109523809523806E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup paperSize="32767" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14753166666666667"/>
+          <c:y val="8.4814814814814829E-2"/>
+          <c:w val="0.79369555555555538"/>
+          <c:h val="0.74943703703703701"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Matching</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.10000199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20000200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30000199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40000200000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50000199999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60000100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70000099999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80000099999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90000100000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0000009999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.100001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.300001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5000009999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.600001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.800001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1000009999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2000009999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>13.276820068999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.795996045000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.052431224999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.478498221000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.119648203000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.317562215000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.426494156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.705573777</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.734060251000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.652196543000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.443659805999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.720000990999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.418144935999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.130569344</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.114993172</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.217422308</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.13751003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.790912520999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.336978181999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.268968211000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.015439451000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.190776472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-825D-4698-93F2-7C11D23FDB06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>State Diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.10000199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20000200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30000199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40000200000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50000199999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60000100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70000099999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80000099999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90000100000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0000009999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.100001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.300001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5000009999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.600001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.800001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1000009999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2000009999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>40.105075098999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.095511913000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.821795506999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.199066510999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.749554398999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.562671035999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.085951006000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.068805304000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.277554868999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.071386050999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.047209924000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.988722191999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.153429707000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.657534976000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.595655815999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.939299931999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.673312422999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38.589964811000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37.665090161999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.3672258</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37.378254019000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37.332680336000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-825D-4698-93F2-7C11D23FDB06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="389233608"/>
+        <c:axId val="389231968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="389233608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.4"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Differences</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>(x1M)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.24884156835191421"/>
+              <c:y val="0.92375998924235436"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389231968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="389231968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Execution Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389233608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10018444444444442"/>
+          <c:y val="9.2591269841269842E-3"/>
+          <c:w val="0.88008305555555555"/>
+          <c:h val="9.0109523809523806E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup paperSize="32767" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14753166666666667"/>
+          <c:y val="8.4814814814814829E-2"/>
+          <c:w val="0.79369555555555538"/>
+          <c:h val="0.74943703703703701"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Matching</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.10000199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20000200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30000199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40000200000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50000199999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60000100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70000099999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80000099999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90000100000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0000009999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.100001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.300001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5000009999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.600001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.800001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1000009999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2000009999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$2:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.13517442399999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13556643199999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13556638400000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13556638400000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13556638400000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.135565928</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13556638400000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13556638400000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13556638400000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13556638400000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13556663999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13556638400000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13556638400000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13556617600000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13556638400000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13556638400000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13556638400000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.13556638400000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13556638400000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.135566568</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.13556638400000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13556638400000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C93-4676-AF03-D874E84A3F42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>State Diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.10000199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20000200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30000199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40000200000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50000199999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60000100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70000099999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80000099999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90000100000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0000009999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.100001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.300001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5000009999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.600001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.800001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0000010000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1000009999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2000009999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$2:$U$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.46888649599999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.480874368</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49115906399999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50003744000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50784170399999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51455436799999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52050419199999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52578628800000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53049242399999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53465431200000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53842430399999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54183303199999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54483212800000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54762869599999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55018729600000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.55255671200000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.55477169599999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55674742399999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.558594704</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.560251528</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.56184341599999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.56331834400000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C93-4676-AF03-D874E84A3F42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="389233608"/>
+        <c:axId val="389231968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="389233608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.4"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Differences</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>(x1M)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.22720739362874015"/>
+              <c:y val="0.9244047919028604"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389231968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="389231968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.8"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Memory Footprint</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (GBs)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="cmr10" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
@@ -7472,7 +10918,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.10000199999999999</c:v>
@@ -7665,7 +11111,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.10000199999999999</c:v>
@@ -7909,7 +11355,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
@@ -9826,7 +13272,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.10000199999999999</c:v>
@@ -10019,7 +13465,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.10000199999999999</c:v>
@@ -10271,7 +13717,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
@@ -12196,7 +15642,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.10000199999999999</c:v>
@@ -12446,7 +15892,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
@@ -12977,6 +16423,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -16394,6 +20000,2070 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21609,6 +27279,158 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>162379</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>259039</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>35084</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D17F083A-3E75-4F7D-8E97-04A4301DD276}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66214</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>146722</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBE61FD-0F30-431D-A5A0-C25E82664B03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>504639</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>143676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Chart 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C26E027-9D14-435B-B2AC-FFA03C6E73EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>314611</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>101488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>200178</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>64010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Chart 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7A6FF7-AE64-49EA-A8C4-E6793938C635}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -24299,20 +30121,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AQ37" sqref="AQ37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="4.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.25" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="4.25" customWidth="1"/>
     <col min="13" max="13" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.875" bestFit="1" customWidth="1"/>
@@ -24398,7 +30222,7 @@
         <f>output!A2</f>
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <f>output!D2/1000000</f>
         <v>0.10000199999999999</v>
       </c>
@@ -24488,7 +30312,7 @@
         <f>output!A3</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <f>output!D3/1000000</f>
         <v>0.20000200000000001</v>
       </c>
@@ -24578,7 +30402,7 @@
         <f>output!A4</f>
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <f>output!D4/1000000</f>
         <v>0.30000199999999999</v>
       </c>
@@ -24668,7 +30492,7 @@
         <f>output!A5</f>
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <f>output!D5/1000000</f>
         <v>0.40000200000000002</v>
       </c>
@@ -24758,7 +30582,7 @@
         <f>output!A6</f>
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <f>output!D6/1000000</f>
         <v>0.50000199999999995</v>
       </c>
@@ -24848,7 +30672,7 @@
         <f>output!A7</f>
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <f>output!D7/1000000</f>
         <v>0.60000100000000001</v>
       </c>
@@ -24938,7 +30762,7 @@
         <f>output!A8</f>
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <f>output!D8/1000000</f>
         <v>0.70000099999999998</v>
       </c>
@@ -25028,7 +30852,7 @@
         <f>output!A9</f>
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <f>output!D9/1000000</f>
         <v>0.80000099999999996</v>
       </c>
@@ -25118,7 +30942,7 @@
         <f>output!A10</f>
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <f>output!D10/1000000</f>
         <v>0.90000100000000005</v>
       </c>
@@ -25208,7 +31032,7 @@
         <f>output!A11</f>
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <f>output!D11/1000000</f>
         <v>1.0000009999999999</v>
       </c>
@@ -25298,7 +31122,7 @@
         <f>output!A12</f>
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <f>output!D12/1000000</f>
         <v>1.100001</v>
       </c>
@@ -25388,7 +31212,7 @@
         <f>output!A13</f>
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <f>output!D13/1000000</f>
         <v>1.2000010000000001</v>
       </c>
@@ -25478,7 +31302,7 @@
         <f>output!A14</f>
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <f>output!D14/1000000</f>
         <v>1.300001</v>
       </c>
@@ -25568,7 +31392,7 @@
         <f>output!A15</f>
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <f>output!D15/1000000</f>
         <v>1.4000010000000001</v>
       </c>
@@ -25658,7 +31482,7 @@
         <f>output!A16</f>
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <f>output!D16/1000000</f>
         <v>1.5000009999999999</v>
       </c>
@@ -25748,7 +31572,7 @@
         <f>output!A17</f>
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <f>output!D17/1000000</f>
         <v>1.600001</v>
       </c>
@@ -25838,7 +31662,7 @@
         <f>output!A18</f>
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <f>output!D18/1000000</f>
         <v>1.7000010000000001</v>
       </c>
@@ -25928,7 +31752,7 @@
         <f>output!A19</f>
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <f>output!D19/1000000</f>
         <v>1.800001</v>
       </c>
@@ -26018,7 +31842,7 @@
         <f>output!A20</f>
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="4">
         <f>output!D20/1000000</f>
         <v>1.9000010000000001</v>
       </c>
@@ -26108,7 +31932,7 @@
         <f>output!A21</f>
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="4">
         <f>output!D21/1000000</f>
         <v>2.0000010000000001</v>
       </c>
@@ -26198,7 +32022,7 @@
         <f>output!A22</f>
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="4">
         <f>output!D22/1000000</f>
         <v>2.1000009999999998</v>
       </c>
@@ -26288,7 +32112,7 @@
         <f>output!A23</f>
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="4">
         <f>output!D23/1000000</f>
         <v>2.2000009999999999</v>
       </c>
